--- a/features/df_train_iv.xlsx
+++ b/features/df_train_iv.xlsx
@@ -73,234 +73,234 @@
     <t>FLOORSMAX_AVG</t>
   </si>
   <si>
+    <t>AMT_ANNUITY</t>
+  </si>
+  <si>
+    <t>FLOORSMAX_MODE</t>
+  </si>
+  <si>
+    <t>TOTALAREA_MODE</t>
+  </si>
+  <si>
     <t>FLOORSMAX_MEDI</t>
   </si>
   <si>
-    <t>FLOORSMAX_MODE</t>
-  </si>
-  <si>
-    <t>TOTALAREA_MODE</t>
-  </si>
-  <si>
-    <t>AMT_ANNUITY</t>
+    <t>FLAG_EMP_PHONE</t>
+  </si>
+  <si>
+    <t>REG_CITY_NOT_WORK_CITY</t>
+  </si>
+  <si>
+    <t>APARTMENTS_AVG</t>
   </si>
   <si>
     <t>LIVINGAREA_AVG</t>
   </si>
   <si>
+    <t>APARTMENTS_MEDI</t>
+  </si>
+  <si>
+    <t>APARTMENTS_MODE</t>
+  </si>
+  <si>
     <t>LIVINGAREA_MEDI</t>
   </si>
   <si>
+    <t>LIVINGAREA_MODE</t>
+  </si>
+  <si>
     <t>ELEVATORS_AVG</t>
   </si>
   <si>
-    <t>LIVINGAREA_MODE</t>
-  </si>
-  <si>
-    <t>FLAG_EMP_PHONE</t>
-  </si>
-  <si>
-    <t>APARTMENTS_AVG</t>
-  </si>
-  <si>
-    <t>APARTMENTS_MEDI</t>
-  </si>
-  <si>
-    <t>REG_CITY_NOT_WORK_CITY</t>
-  </si>
-  <si>
     <t>ELEVATORS_MEDI</t>
   </si>
   <si>
-    <t>APARTMENTS_MODE</t>
+    <t>DAYS_REGISTRATION</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_3</t>
+  </si>
+  <si>
+    <t>YEARS_BEGINEXPLUATATION_MODE</t>
+  </si>
+  <si>
+    <t>YEARS_BEGINEXPLUATATION_AVG</t>
+  </si>
+  <si>
+    <t>YEARS_BEGINEXPLUATATION_MEDI</t>
+  </si>
+  <si>
+    <t>ENTRANCES_AVG</t>
+  </si>
+  <si>
+    <t>ENTRANCES_MEDI</t>
+  </si>
+  <si>
+    <t>WALLSMATERIAL_MODE</t>
+  </si>
+  <si>
+    <t>REGION_POPULATION_RELATIVE</t>
+  </si>
+  <si>
+    <t>ENTRANCES_MODE</t>
+  </si>
+  <si>
+    <t>EMERGENCYSTATE_MODE</t>
+  </si>
+  <si>
+    <t>HOUSETYPE_MODE</t>
+  </si>
+  <si>
+    <t>REG_CITY_NOT_LIVE_CITY</t>
+  </si>
+  <si>
+    <t>NAME_FAMILY_STATUS</t>
+  </si>
+  <si>
+    <t>BASEMENTAREA_MEDI</t>
+  </si>
+  <si>
+    <t>BASEMENTAREA_AVG</t>
+  </si>
+  <si>
+    <t>NONLIVINGAREA_AVG</t>
+  </si>
+  <si>
+    <t>NONLIVINGAREA_MEDI</t>
+  </si>
+  <si>
+    <t>BASEMENTAREA_MODE</t>
+  </si>
+  <si>
+    <t>NONLIVINGAREA_MODE</t>
+  </si>
+  <si>
+    <t>FLOORSMIN_AVG</t>
+  </si>
+  <si>
+    <t>FLOORSMIN_MEDI</t>
+  </si>
+  <si>
+    <t>LANDAREA_MEDI</t>
+  </si>
+  <si>
+    <t>LANDAREA_MODE</t>
+  </si>
+  <si>
+    <t>LANDAREA_AVG</t>
+  </si>
+  <si>
+    <t>AMT_REQ_CREDIT_BUREAU_QRT</t>
+  </si>
+  <si>
+    <t>FLOORSMIN_MODE</t>
+  </si>
+  <si>
+    <t>YEARS_BUILD_MODE</t>
+  </si>
+  <si>
+    <t>YEARS_BUILD_MEDI</t>
+  </si>
+  <si>
+    <t>YEARS_BUILD_AVG</t>
+  </si>
+  <si>
+    <t>AMT_REQ_CREDIT_BUREAU_YEAR</t>
+  </si>
+  <si>
+    <t>LIVINGAPARTMENTS_MEDI</t>
+  </si>
+  <si>
+    <t>LIVINGAPARTMENTS_AVG</t>
+  </si>
+  <si>
+    <t>LIVINGAPARTMENTS_MODE</t>
+  </si>
+  <si>
+    <t>NAME_CONTRACT_TYPE</t>
+  </si>
+  <si>
+    <t>AMT_REQ_CREDIT_BUREAU_DAY</t>
+  </si>
+  <si>
+    <t>LIVE_CITY_NOT_WORK_CITY</t>
+  </si>
+  <si>
+    <t>AMT_REQ_CREDIT_BUREAU_HOUR</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_6</t>
+  </si>
+  <si>
+    <t>COMMONAREA_AVG</t>
+  </si>
+  <si>
+    <t>COMMONAREA_MEDI</t>
+  </si>
+  <si>
+    <t>COMMONAREA_MODE</t>
+  </si>
+  <si>
+    <t>FONDKAPREMONT_MODE</t>
+  </si>
+  <si>
+    <t>AMT_INCOME_TOTAL</t>
+  </si>
+  <si>
+    <t>NAME_HOUSING_TYPE</t>
+  </si>
+  <si>
+    <t>AMT_REQ_CREDIT_BUREAU_WEEK</t>
+  </si>
+  <si>
+    <t>DEF_30_CNT_SOCIAL_CIRCLE</t>
+  </si>
+  <si>
+    <t>NONLIVINGAPARTMENTS_AVG</t>
+  </si>
+  <si>
+    <t>NONLIVINGAPARTMENTS_MODE</t>
+  </si>
+  <si>
+    <t>NONLIVINGAPARTMENTS_MEDI</t>
+  </si>
+  <si>
+    <t>FLAG_WORK_PHONE</t>
+  </si>
+  <si>
+    <t>HOUR_APPR_PROCESS_START</t>
+  </si>
+  <si>
+    <t>DEF_60_CNT_SOCIAL_CIRCLE</t>
+  </si>
+  <si>
+    <t>FLAG_PHONE</t>
+  </si>
+  <si>
+    <t>AMT_REQ_CREDIT_BUREAU_MON</t>
+  </si>
+  <si>
+    <t>FLAG_OWN_CAR</t>
+  </si>
+  <si>
+    <t>OWN_CAR_AGE</t>
+  </si>
+  <si>
+    <t>CNT_CHILDREN</t>
+  </si>
+  <si>
+    <t>CNT_FAM_MEMBERS</t>
   </si>
   <si>
     <t>ELEVATORS_MODE</t>
   </si>
   <si>
-    <t>DAYS_REGISTRATION</t>
-  </si>
-  <si>
-    <t>YEARS_BEGINEXPLUATATION_MODE</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_3</t>
-  </si>
-  <si>
-    <t>YEARS_BEGINEXPLUATATION_MEDI</t>
-  </si>
-  <si>
-    <t>YEARS_BEGINEXPLUATATION_AVG</t>
-  </si>
-  <si>
-    <t>ENTRANCES_AVG</t>
-  </si>
-  <si>
-    <t>ENTRANCES_MEDI</t>
-  </si>
-  <si>
-    <t>WALLSMATERIAL_MODE</t>
-  </si>
-  <si>
-    <t>ENTRANCES_MODE</t>
-  </si>
-  <si>
-    <t>REGION_POPULATION_RELATIVE</t>
-  </si>
-  <si>
-    <t>EMERGENCYSTATE_MODE</t>
-  </si>
-  <si>
-    <t>NONLIVINGAREA_AVG</t>
-  </si>
-  <si>
-    <t>NONLIVINGAREA_MEDI</t>
-  </si>
-  <si>
-    <t>BASEMENTAREA_MEDI</t>
-  </si>
-  <si>
-    <t>NONLIVINGAREA_MODE</t>
-  </si>
-  <si>
-    <t>BASEMENTAREA_AVG</t>
-  </si>
-  <si>
-    <t>HOUSETYPE_MODE</t>
-  </si>
-  <si>
-    <t>REG_CITY_NOT_LIVE_CITY</t>
-  </si>
-  <si>
-    <t>BASEMENTAREA_MODE</t>
-  </si>
-  <si>
-    <t>NAME_FAMILY_STATUS</t>
-  </si>
-  <si>
-    <t>LANDAREA_MEDI</t>
-  </si>
-  <si>
-    <t>FLOORSMIN_AVG</t>
-  </si>
-  <si>
-    <t>FLOORSMIN_MEDI</t>
-  </si>
-  <si>
-    <t>LANDAREA_MODE</t>
-  </si>
-  <si>
-    <t>LANDAREA_AVG</t>
-  </si>
-  <si>
-    <t>AMT_REQ_CREDIT_BUREAU_YEAR</t>
-  </si>
-  <si>
-    <t>FLOORSMIN_MODE</t>
-  </si>
-  <si>
-    <t>LIVINGAPARTMENTS_AVG</t>
-  </si>
-  <si>
-    <t>LIVINGAPARTMENTS_MEDI</t>
-  </si>
-  <si>
-    <t>YEARS_BUILD_MODE</t>
-  </si>
-  <si>
-    <t>AMT_REQ_CREDIT_BUREAU_QRT</t>
-  </si>
-  <si>
-    <t>YEARS_BUILD_MEDI</t>
-  </si>
-  <si>
-    <t>LIVINGAPARTMENTS_MODE</t>
-  </si>
-  <si>
-    <t>YEARS_BUILD_AVG</t>
-  </si>
-  <si>
-    <t>NAME_CONTRACT_TYPE</t>
-  </si>
-  <si>
-    <t>AMT_REQ_CREDIT_BUREAU_MON</t>
-  </si>
-  <si>
-    <t>AMT_REQ_CREDIT_BUREAU_DAY</t>
-  </si>
-  <si>
-    <t>AMT_REQ_CREDIT_BUREAU_HOUR</t>
-  </si>
-  <si>
-    <t>LIVE_CITY_NOT_WORK_CITY</t>
-  </si>
-  <si>
-    <t>AMT_REQ_CREDIT_BUREAU_WEEK</t>
-  </si>
-  <si>
-    <t>COMMONAREA_AVG</t>
-  </si>
-  <si>
-    <t>COMMONAREA_MEDI</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_6</t>
-  </si>
-  <si>
-    <t>COMMONAREA_MODE</t>
-  </si>
-  <si>
-    <t>DEF_30_CNT_SOCIAL_CIRCLE</t>
-  </si>
-  <si>
-    <t>FONDKAPREMONT_MODE</t>
-  </si>
-  <si>
-    <t>AMT_INCOME_TOTAL</t>
-  </si>
-  <si>
-    <t>DEF_60_CNT_SOCIAL_CIRCLE</t>
-  </si>
-  <si>
-    <t>NONLIVINGAPARTMENTS_AVG</t>
-  </si>
-  <si>
-    <t>NAME_HOUSING_TYPE</t>
-  </si>
-  <si>
-    <t>NONLIVINGAPARTMENTS_MEDI</t>
-  </si>
-  <si>
-    <t>NONLIVINGAPARTMENTS_MODE</t>
-  </si>
-  <si>
-    <t>FLAG_WORK_PHONE</t>
-  </si>
-  <si>
-    <t>HOUR_APPR_PROCESS_START</t>
-  </si>
-  <si>
-    <t>FLAG_PHONE</t>
-  </si>
-  <si>
-    <t>FLAG_OWN_CAR</t>
-  </si>
-  <si>
-    <t>OWN_CAR_AGE</t>
-  </si>
-  <si>
-    <t>CNT_CHILDREN</t>
-  </si>
-  <si>
-    <t>CNT_FAM_MEMBERS</t>
+    <t>NAME_TYPE_SUITE</t>
   </si>
   <si>
     <t>OBS_60_CNT_SOCIAL_CIRCLE</t>
   </si>
   <si>
-    <t>NAME_TYPE_SUITE</t>
-  </si>
-  <si>
     <t>OBS_30_CNT_SOCIAL_CIRCLE</t>
   </si>
   <si>
@@ -334,18 +334,18 @@
     <t>FLAG_DOCUMENT_20</t>
   </si>
   <si>
+    <t>FLAG_DOCUMENT_19</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_17</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_16</t>
+  </si>
+  <si>
     <t>FLAG_DOCUMENT_18</t>
   </si>
   <si>
-    <t>FLAG_DOCUMENT_17</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_16</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_19</t>
-  </si>
-  <si>
     <t>FLAG_DOCUMENT_7</t>
   </si>
   <si>
@@ -358,25 +358,25 @@
     <t>FLAG_MOBIL</t>
   </si>
   <si>
+    <t>FLAG_CONT_MOBILE</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_12</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_11</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_10</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_9</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENT_4</t>
+  </si>
+  <si>
     <t>FLAG_DOCUMENT_5</t>
-  </si>
-  <si>
-    <t>FLAG_CONT_MOBILE</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_12</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_11</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_10</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_9</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENT_4</t>
   </si>
   <si>
     <t>FLAG_DOCUMENT_13</t>
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3366335129812439</v>
+        <v>0.3363727622859232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3172384122970812</v>
+        <v>0.3165430644262328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1480845385747033</v>
+        <v>0.1416132789129812</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -781,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1027736626545162</v>
+        <v>0.1023618275596126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -845,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04953066158858365</v>
+        <v>0.04955557172598923</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03804756864007761</v>
+        <v>0.03701008940237876</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -885,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03784942112649541</v>
+        <v>0.03643588487380783</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -893,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0371907664487429</v>
+        <v>0.0360992801120712</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -901,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03715845913830862</v>
+        <v>0.03424601262251267</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03679766201617844</v>
+        <v>0.03362408583495677</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03430731976821611</v>
+        <v>0.03290712514386834</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -925,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03405669429821427</v>
+        <v>0.03220724516743469</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03321533633407542</v>
+        <v>0.03191444136957122</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03303537138339707</v>
+        <v>0.03144950927604934</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -949,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03290712514386834</v>
+        <v>0.03136045128062504</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03241420323817735</v>
+        <v>0.03093268623595277</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -965,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03231666193795995</v>
+        <v>0.03080199436590287</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03220724516743469</v>
+        <v>0.03022834613609515</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.031849768619092</v>
+        <v>0.03021079966641959</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03164434087005492</v>
+        <v>0.02913849922348634</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03112306142701928</v>
+        <v>0.02883627283738179</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02883627283738179</v>
+        <v>0.02857910659787766</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02863496393680668</v>
+        <v>0.02838891164461503</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02857910659787766</v>
+        <v>0.02804048079208251</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02853175351484393</v>
+        <v>0.02758783785804963</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02837492126872415</v>
+        <v>0.02692290227203383</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02772123300205228</v>
+        <v>0.02667458306701234</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02748704790095184</v>
+        <v>0.02647986442074388</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02647986442074388</v>
+        <v>0.0260605021720476</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02646383805395684</v>
+        <v>0.02569025848393392</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0260605021720476</v>
+        <v>0.02404397096758127</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02404397096758127</v>
+        <v>0.02246427324545952</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02323002319833902</v>
+        <v>0.02229869168669272</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02292480601426485</v>
+        <v>0.02170240273533802</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02283666313773916</v>
+        <v>0.0215411835344245</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02279979338434349</v>
+        <v>0.02132641759284318</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02272189910289153</v>
+        <v>0.02091862768578193</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02246427324545952</v>
+        <v>0.02067840018113357</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02229869168669272</v>
+        <v>0.02057831980003716</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02189585573442052</v>
+        <v>0.0205569775449213</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02170240273533802</v>
+        <v>0.01790045138903416</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01843370543807305</v>
+        <v>0.01784982979253832</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01833341619828085</v>
+        <v>0.01773919245039881</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01831379432819438</v>
+        <v>0.0176338106006981</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01830638257451739</v>
+        <v>0.0176036042128881</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0181658694252166</v>
+        <v>0.01722659429154307</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01811878781884387</v>
+        <v>0.01714199474849415</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01767781644586787</v>
+        <v>0.01709500990873932</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01761921287431592</v>
+        <v>0.01684272370821435</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01714213094716657</v>
+        <v>0.01672849953460083</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01691138884865386</v>
+        <v>0.01629982814692716</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01687107504573824</v>
+        <v>0.01601536111349238</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01681208035405339</v>
+        <v>0.01592000393285286</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01680760179315647</v>
+        <v>0.01571670738944634</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01669552228809809</v>
+        <v>0.01503876277210174</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01503876277210174</v>
+        <v>0.01343146339264613</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01366496921808211</v>
+        <v>0.01322837853603003</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01347947864552572</v>
+        <v>0.01284244175567916</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01322901961705934</v>
+        <v>0.01282444120544894</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01322837853603003</v>
+        <v>0.01271163672801508</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01322378351446666</v>
+        <v>0.01269815594126797</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01316733874310005</v>
+        <v>0.01230263272724535</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01310867008114238</v>
+        <v>0.01200571131525038</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01282444120544894</v>
+        <v>0.01196885588417149</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01265527209689186</v>
+        <v>0.01168720377437528</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01240052041520255</v>
+        <v>0.01104452363802965</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01200571131525038</v>
+        <v>0.01090117535195337</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01196885588417149</v>
+        <v>0.01073089738358383</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01188815971212193</v>
+        <v>0.01063119690732183</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01173155879538809</v>
+        <v>0.0105581171924631</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01168720377437528</v>
+        <v>0.01032857444368109</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01160503390408058</v>
+        <v>0.009817624802834463</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01121613927030782</v>
+        <v>0.00964274170756169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01032857444368109</v>
+        <v>0.007941714028759749</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0.009817624802834463</v>
+        <v>0.007081030582365557</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>0.007941714028759749</v>
+        <v>0.006596551306453279</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>0.006596551306453279</v>
+        <v>0.006588163345772479</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>0.006590500393603841</v>
+        <v>0.005395441968032357</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>0.005395441968032357</v>
+        <v>0.004966624394216843</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>0.00496740571826077</v>
+        <v>0.001685176859244609</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001569771152813732</v>
+        <v>0.00156797415081203</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>0.00156797415081203</v>
+        <v>0.001134877709022753</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0.00156618176518921</v>
+        <v>0.001134226573457025</v>
       </c>
     </row>
     <row r="96" spans="1:2">
